--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6105403333333334</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N2">
-        <v>1.831621</v>
+        <v>1.049809</v>
       </c>
       <c r="O2">
-        <v>0.01188380198875054</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P2">
-        <v>0.01188380198875054</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q2">
-        <v>65.25368976128321</v>
+        <v>73.99805028662223</v>
       </c>
       <c r="R2">
-        <v>587.2832078515489</v>
+        <v>665.9824525796</v>
       </c>
       <c r="S2">
-        <v>0.001792966608253231</v>
+        <v>0.001527161494415083</v>
       </c>
       <c r="T2">
-        <v>0.001792966608253232</v>
+        <v>0.001527161494415083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>3.187538</v>
       </c>
       <c r="O3">
-        <v>0.02068117281010531</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P3">
-        <v>0.02068117281010532</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q3">
-        <v>113.5598553163024</v>
+        <v>224.6804868452444</v>
       </c>
       <c r="R3">
-        <v>1022.038697846722</v>
+        <v>2022.1243816072</v>
       </c>
       <c r="S3">
-        <v>0.003120268437923723</v>
+        <v>0.004636924712576158</v>
       </c>
       <c r="T3">
-        <v>0.003120268437923724</v>
+        <v>0.004636924712576158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.133338666666666</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N4">
-        <v>6.400016</v>
+        <v>13.028971</v>
       </c>
       <c r="O4">
-        <v>0.04152415967541061</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P4">
-        <v>0.04152415967541061</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q4">
-        <v>228.0082279747004</v>
+        <v>918.3751056058221</v>
       </c>
       <c r="R4">
-        <v>2052.074051772304</v>
+        <v>8265.375950452399</v>
       </c>
       <c r="S4">
-        <v>0.006264950543964286</v>
+        <v>0.01895329800282792</v>
       </c>
       <c r="T4">
-        <v>0.006264950543964289</v>
+        <v>0.01895329800282792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.29128866666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N5">
-        <v>138.873866</v>
+        <v>0.126806</v>
       </c>
       <c r="O5">
-        <v>0.9010322140640862</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P5">
-        <v>0.9010322140640862</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q5">
-        <v>4947.547646545883</v>
+        <v>8.938194247377778</v>
       </c>
       <c r="R5">
-        <v>44527.92881891295</v>
+        <v>80.4437482264</v>
       </c>
       <c r="S5">
-        <v>0.1359430823827821</v>
+        <v>0.000184465212682306</v>
       </c>
       <c r="T5">
-        <v>0.1359430823827821</v>
+        <v>0.000184465212682306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.278161666666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N6">
-        <v>3.834485</v>
+        <v>144.262471</v>
       </c>
       <c r="O6">
-        <v>0.02487865146164742</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P6">
-        <v>0.02487865146164742</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q6">
-        <v>136.6081162993294</v>
+        <v>10168.65123420582</v>
       </c>
       <c r="R6">
-        <v>1229.473046693965</v>
+        <v>91517.86110785241</v>
       </c>
       <c r="S6">
-        <v>0.003753562317121222</v>
+        <v>0.209859213247717</v>
       </c>
       <c r="T6">
-        <v>0.003753562317121224</v>
+        <v>0.209859213247717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6105403333333334</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N7">
-        <v>1.831621</v>
+        <v>4.77428</v>
       </c>
       <c r="O7">
-        <v>0.01188380198875054</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P7">
-        <v>0.01188380198875054</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q7">
-        <v>47.15381455272767</v>
+        <v>336.5254170257778</v>
       </c>
       <c r="R7">
-        <v>424.384330974549</v>
+        <v>3028.728753232</v>
       </c>
       <c r="S7">
-        <v>0.001295638840563602</v>
+        <v>0.006945164862899862</v>
       </c>
       <c r="T7">
-        <v>0.001295638840563602</v>
+        <v>0.006945164862899861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.062512666666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N8">
-        <v>3.187538</v>
+        <v>1.049809</v>
       </c>
       <c r="O8">
-        <v>0.02068117281010531</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P8">
-        <v>0.02068117281010532</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q8">
-        <v>82.06095897119133</v>
+        <v>27.02660588723567</v>
       </c>
       <c r="R8">
-        <v>738.548630740722</v>
+        <v>243.239452985121</v>
       </c>
       <c r="S8">
-        <v>0.002254777619699939</v>
+        <v>0.0005577713422968393</v>
       </c>
       <c r="T8">
-        <v>0.00225477761969994</v>
+        <v>0.0005577713422968393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.133338666666666</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N9">
-        <v>6.400016</v>
+        <v>3.187538</v>
       </c>
       <c r="O9">
-        <v>0.04152415967541061</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P9">
-        <v>0.04152415967541061</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q9">
-        <v>164.7639809755893</v>
+        <v>82.06095897119133</v>
       </c>
       <c r="R9">
-        <v>1482.875828780304</v>
+        <v>738.548630740722</v>
       </c>
       <c r="S9">
-        <v>0.004527197116558775</v>
+        <v>0.001693562685100035</v>
       </c>
       <c r="T9">
-        <v>0.004527197116558777</v>
+        <v>0.001693562685100035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.29128866666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N10">
-        <v>138.873866</v>
+        <v>13.028971</v>
       </c>
       <c r="O10">
-        <v>0.9010322140640862</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P10">
-        <v>0.9010322140640862</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q10">
-        <v>3575.21153316344</v>
+        <v>335.4218380040776</v>
       </c>
       <c r="R10">
-        <v>32176.90379847095</v>
+        <v>3018.796542036699</v>
       </c>
       <c r="S10">
-        <v>0.09823559280485701</v>
+        <v>0.006922389352174148</v>
       </c>
       <c r="T10">
-        <v>0.09823559280485704</v>
+        <v>0.006922389352174148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.278161666666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N11">
-        <v>3.834485</v>
+        <v>0.126806</v>
       </c>
       <c r="O11">
-        <v>0.02487865146164742</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P11">
-        <v>0.02487865146164742</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q11">
-        <v>98.71616158321834</v>
+        <v>3.264532677979334</v>
       </c>
       <c r="R11">
-        <v>888.445454248965</v>
+        <v>29.380794101814</v>
       </c>
       <c r="S11">
-        <v>0.002712410318269185</v>
+        <v>6.737297244669555E-05</v>
       </c>
       <c r="T11">
-        <v>0.002712410318269185</v>
+        <v>6.737297244669555E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6105403333333334</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N12">
-        <v>1.831621</v>
+        <v>144.262471</v>
       </c>
       <c r="O12">
-        <v>0.01188380198875054</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P12">
-        <v>0.01188380198875054</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q12">
-        <v>83.44641635075901</v>
+        <v>3713.937438177578</v>
       </c>
       <c r="R12">
-        <v>751.017747156831</v>
+        <v>33425.4369435982</v>
       </c>
       <c r="S12">
-        <v>0.002292845640494018</v>
+        <v>0.07664772553171943</v>
       </c>
       <c r="T12">
-        <v>0.002292845640494018</v>
+        <v>0.07664772553171943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.062512666666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N13">
-        <v>3.187538</v>
+        <v>4.77428</v>
       </c>
       <c r="O13">
-        <v>0.02068117281010531</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P13">
-        <v>0.02068117281010532</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q13">
-        <v>145.220339296102</v>
+        <v>122.9105332068133</v>
       </c>
       <c r="R13">
-        <v>1306.983053664918</v>
+        <v>1106.19479886132</v>
       </c>
       <c r="S13">
-        <v>0.003990199177236458</v>
+        <v>0.002536610530202116</v>
       </c>
       <c r="T13">
-        <v>0.00399019917723646</v>
+        <v>0.002536610530202116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.133338666666666</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N14">
-        <v>6.400016</v>
+        <v>1.049809</v>
       </c>
       <c r="O14">
-        <v>0.04152415967541061</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P14">
-        <v>0.04152415967541061</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q14">
-        <v>291.576914540464</v>
+        <v>60.99764873515744</v>
       </c>
       <c r="R14">
-        <v>2624.192230864176</v>
+        <v>548.978838616417</v>
       </c>
       <c r="S14">
-        <v>0.008011618552469076</v>
+        <v>0.001258861011031666</v>
       </c>
       <c r="T14">
-        <v>0.008011618552469077</v>
+        <v>0.001258861011031666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>46.29128866666667</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N15">
-        <v>138.873866</v>
+        <v>3.187538</v>
       </c>
       <c r="O15">
-        <v>0.9010322140640862</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P15">
-        <v>0.9010322140640862</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q15">
-        <v>6326.923769969615</v>
+        <v>185.2073312897549</v>
       </c>
       <c r="R15">
-        <v>56942.31392972653</v>
+        <v>1666.865981607794</v>
       </c>
       <c r="S15">
-        <v>0.1738440093428992</v>
+        <v>0.003822283205213381</v>
       </c>
       <c r="T15">
-        <v>0.1738440093428993</v>
+        <v>0.00382228320521338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.278161666666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N16">
-        <v>3.834485</v>
+        <v>13.028971</v>
       </c>
       <c r="O16">
-        <v>0.02487865146164742</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P16">
-        <v>0.02487865146164742</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q16">
-        <v>174.694454693815</v>
+        <v>757.0297039161914</v>
       </c>
       <c r="R16">
-        <v>1572.250092244335</v>
+        <v>6813.267335245721</v>
       </c>
       <c r="S16">
-        <v>0.004800055369418512</v>
+        <v>0.0156234739898041</v>
       </c>
       <c r="T16">
-        <v>0.004800055369418512</v>
+        <v>0.0156234739898041</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.6105403333333334</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N17">
-        <v>1.831621</v>
+        <v>0.126806</v>
       </c>
       <c r="O17">
-        <v>0.01188380198875054</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P17">
-        <v>0.01188380198875054</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q17">
-        <v>27.81051778562811</v>
+        <v>7.367881057897556</v>
       </c>
       <c r="R17">
-        <v>250.294660070653</v>
+        <v>66.31092952107799</v>
       </c>
       <c r="S17">
-        <v>0.000764145750689014</v>
+        <v>0.0001520573069623917</v>
       </c>
       <c r="T17">
-        <v>0.0007641457506890142</v>
+        <v>0.0001520573069623917</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.062512666666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N18">
-        <v>3.187538</v>
+        <v>144.262471</v>
       </c>
       <c r="O18">
-        <v>0.02068117281010531</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P18">
-        <v>0.02068117281010532</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q18">
-        <v>48.39815782924823</v>
+        <v>8382.16430962569</v>
       </c>
       <c r="R18">
-        <v>435.583420463234</v>
+        <v>75439.47878663123</v>
       </c>
       <c r="S18">
-        <v>0.001329829488665918</v>
+        <v>0.1729899439774153</v>
       </c>
       <c r="T18">
-        <v>0.001329829488665919</v>
+        <v>0.1729899439774153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.133338666666666</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N19">
-        <v>6.400016</v>
+        <v>4.77428</v>
       </c>
       <c r="O19">
-        <v>0.04152415967541061</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P19">
-        <v>0.04152415967541061</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q19">
-        <v>97.17499351465422</v>
+        <v>277.4027031615155</v>
       </c>
       <c r="R19">
-        <v>874.574941631888</v>
+        <v>2496.62432845364</v>
       </c>
       <c r="S19">
-        <v>0.002670063856410087</v>
+        <v>0.005724998497582191</v>
       </c>
       <c r="T19">
-        <v>0.002670063856410088</v>
+        <v>0.005724998497582189</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>46.29128866666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N20">
-        <v>138.873866</v>
+        <v>1.049809</v>
       </c>
       <c r="O20">
-        <v>0.9010322140640862</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P20">
-        <v>0.9010322140640862</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q20">
-        <v>2108.598951612771</v>
+        <v>9.98534520435611</v>
       </c>
       <c r="R20">
-        <v>18977.39056451494</v>
+        <v>89.86810683920498</v>
       </c>
       <c r="S20">
-        <v>0.05793768175056714</v>
+        <v>0.0002060761688378132</v>
       </c>
       <c r="T20">
-        <v>0.05793768175056715</v>
+        <v>0.0002060761688378132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.278161666666667</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N21">
-        <v>3.834485</v>
+        <v>3.187538</v>
       </c>
       <c r="O21">
-        <v>0.02487865146164742</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P21">
-        <v>0.02487865146164742</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q21">
-        <v>58.22111304206722</v>
+        <v>30.31853154431222</v>
       </c>
       <c r="R21">
-        <v>523.990017378605</v>
+        <v>272.86678389881</v>
       </c>
       <c r="S21">
-        <v>0.001599733470423611</v>
+        <v>0.0006257096472453041</v>
       </c>
       <c r="T21">
-        <v>0.001599733470423611</v>
+        <v>0.0006257096472453041</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6105403333333334</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N22">
-        <v>1.831621</v>
+        <v>13.028971</v>
       </c>
       <c r="O22">
-        <v>0.01188380198875054</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P22">
-        <v>0.01188380198875054</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q22">
-        <v>121.2522177398302</v>
+        <v>123.9261361757661</v>
       </c>
       <c r="R22">
-        <v>1091.269959658472</v>
+        <v>1115.335225581895</v>
       </c>
       <c r="S22">
-        <v>0.003331630416294952</v>
+        <v>0.002557570403358108</v>
       </c>
       <c r="T22">
-        <v>0.003331630416294952</v>
+        <v>0.002557570403358108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>1.062512666666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N23">
-        <v>3.187538</v>
+        <v>0.126806</v>
       </c>
       <c r="O23">
-        <v>0.02068117281010531</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P23">
-        <v>0.02068117281010532</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q23">
-        <v>211.0131144106684</v>
+        <v>1.206125765718889</v>
       </c>
       <c r="R23">
-        <v>1899.118029696016</v>
+        <v>10.85513189147</v>
       </c>
       <c r="S23">
-        <v>0.005797978159180298</v>
+        <v>2.489185620017331E-05</v>
       </c>
       <c r="T23">
-        <v>0.005797978159180301</v>
+        <v>2.489185620017331E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2.133338666666666</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N24">
-        <v>6.400016</v>
+        <v>144.262471</v>
       </c>
       <c r="O24">
-        <v>0.04152415967541061</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P24">
-        <v>0.04152415967541061</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q24">
-        <v>423.6772419460124</v>
+        <v>1372.164434643266</v>
       </c>
       <c r="R24">
-        <v>3813.095177514112</v>
+        <v>12349.47991178939</v>
       </c>
       <c r="S24">
-        <v>0.01164132097763367</v>
+        <v>0.02831853921118616</v>
       </c>
       <c r="T24">
-        <v>0.01164132097763367</v>
+        <v>0.02831853921118616</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>46.29128866666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N25">
-        <v>138.873866</v>
+        <v>4.77428</v>
       </c>
       <c r="O25">
-        <v>0.9010322140640862</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P25">
-        <v>0.9010322140640862</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q25">
-        <v>9193.367098654146</v>
+        <v>45.41095942428888</v>
       </c>
       <c r="R25">
-        <v>82740.3038878873</v>
+        <v>408.6986348185999</v>
       </c>
       <c r="S25">
-        <v>0.2526048762238855</v>
+        <v>0.0009371850797230686</v>
       </c>
       <c r="T25">
-        <v>0.2526048762238856</v>
+        <v>0.0009371850797230685</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>1.278161666666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N26">
-        <v>3.834485</v>
+        <v>1.049809</v>
       </c>
       <c r="O26">
-        <v>0.02487865146164742</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P26">
-        <v>0.02487865146164742</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q26">
-        <v>253.8406199427244</v>
+        <v>80.60048921969667</v>
       </c>
       <c r="R26">
-        <v>2284.56557948452</v>
+        <v>725.40440297727</v>
       </c>
       <c r="S26">
-        <v>0.006974743605159991</v>
+        <v>0.001663421713012236</v>
       </c>
       <c r="T26">
-        <v>0.006974743605159993</v>
+        <v>0.001663421713012236</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.6105403333333334</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N27">
-        <v>1.831621</v>
+        <v>3.187538</v>
       </c>
       <c r="O27">
-        <v>0.01188380198875054</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P27">
-        <v>0.01188380198875054</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q27">
-        <v>87.58550229331955</v>
+        <v>244.7274906257933</v>
       </c>
       <c r="R27">
-        <v>788.269520639876</v>
+        <v>2202.54741563214</v>
       </c>
       <c r="S27">
-        <v>0.002406574732455721</v>
+        <v>0.005050651995031093</v>
       </c>
       <c r="T27">
-        <v>0.002406574732455721</v>
+        <v>0.005050651995031093</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.062512666666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N28">
-        <v>3.187538</v>
+        <v>13.028971</v>
       </c>
       <c r="O28">
-        <v>0.02068117281010531</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P28">
-        <v>0.02068117281010532</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q28">
-        <v>152.4235181891031</v>
+        <v>1000.316663916237</v>
       </c>
       <c r="R28">
-        <v>1371.811663701928</v>
+        <v>9002.849975246128</v>
       </c>
       <c r="S28">
-        <v>0.004188119927398977</v>
+        <v>0.02064439651365795</v>
       </c>
       <c r="T28">
-        <v>0.004188119927398978</v>
+        <v>0.02064439651365795</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>2.133338666666666</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N29">
-        <v>6.400016</v>
+        <v>0.126806</v>
       </c>
       <c r="O29">
-        <v>0.04152415967541061</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P29">
-        <v>0.04152415967541061</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q29">
-        <v>306.0396315860551</v>
+        <v>9.735700147353334</v>
       </c>
       <c r="R29">
-        <v>2754.356684274496</v>
+        <v>87.62130132618</v>
       </c>
       <c r="S29">
-        <v>0.008409008628374718</v>
+        <v>0.0002009240287902177</v>
       </c>
       <c r="T29">
-        <v>0.008409008628374719</v>
+        <v>0.0002009240287902177</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>46.29128866666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N30">
-        <v>138.873866</v>
+        <v>144.262471</v>
       </c>
       <c r="O30">
-        <v>0.9010322140640862</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P30">
-        <v>0.9010322140640862</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q30">
-        <v>6640.750083682788</v>
+        <v>11075.94404186124</v>
       </c>
       <c r="R30">
-        <v>59766.75075314509</v>
+        <v>99683.49637675114</v>
       </c>
       <c r="S30">
-        <v>0.1824669715590952</v>
+        <v>0.2285837963231388</v>
       </c>
       <c r="T30">
-        <v>0.1824669715590953</v>
+        <v>0.2285837963231388</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>1.278161666666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N31">
-        <v>3.834485</v>
+        <v>4.77428</v>
       </c>
       <c r="O31">
-        <v>0.02487865146164742</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P31">
-        <v>0.02487865146164742</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q31">
-        <v>183.3596004638511</v>
+        <v>366.5517286209334</v>
       </c>
       <c r="R31">
-        <v>1650.23640417466</v>
+        <v>3298.9655575884</v>
       </c>
       <c r="S31">
-        <v>0.005038146381254895</v>
+        <v>0.007564843715380663</v>
       </c>
       <c r="T31">
-        <v>0.005038146381254897</v>
+        <v>0.007564843715380662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H32">
+        <v>454.666397</v>
+      </c>
+      <c r="I32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.3499363333333333</v>
+      </c>
+      <c r="N32">
+        <v>1.049809</v>
+      </c>
+      <c r="O32">
+        <v>0.006307815829339535</v>
+      </c>
+      <c r="P32">
+        <v>0.006307815829339534</v>
+      </c>
+      <c r="Q32">
+        <v>53.03476395201923</v>
+      </c>
+      <c r="R32">
+        <v>477.312875568173</v>
+      </c>
+      <c r="S32">
+        <v>0.001094524099745897</v>
+      </c>
+      <c r="T32">
+        <v>0.001094524099745897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H33">
+        <v>454.666397</v>
+      </c>
+      <c r="I33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.187538</v>
+      </c>
+      <c r="O33">
+        <v>0.01915243882746412</v>
+      </c>
+      <c r="P33">
+        <v>0.01915243882746412</v>
+      </c>
+      <c r="Q33">
+        <v>161.0296019733984</v>
+      </c>
+      <c r="R33">
+        <v>1449.266417760586</v>
+      </c>
+      <c r="S33">
+        <v>0.003323306582298149</v>
+      </c>
+      <c r="T33">
+        <v>0.003323306582298149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H34">
+        <v>454.666397</v>
+      </c>
+      <c r="I34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.342990333333333</v>
+      </c>
+      <c r="N34">
+        <v>13.028971</v>
+      </c>
+      <c r="O34">
+        <v>0.07828504948405446</v>
+      </c>
+      <c r="P34">
+        <v>0.07828504948405446</v>
+      </c>
+      <c r="Q34">
+        <v>658.2039223541651</v>
+      </c>
+      <c r="R34">
+        <v>5923.835301187486</v>
+      </c>
+      <c r="S34">
+        <v>0.01358392122223223</v>
+      </c>
+      <c r="T34">
+        <v>0.01358392122223223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H35">
+        <v>454.666397</v>
+      </c>
+      <c r="I35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04226866666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.126806</v>
+      </c>
+      <c r="O35">
+        <v>0.0007619184957027697</v>
+      </c>
+      <c r="P35">
+        <v>0.0007619184957027697</v>
+      </c>
+      <c r="Q35">
+        <v>6.406047459775778</v>
+      </c>
+      <c r="R35">
+        <v>57.654427137982</v>
+      </c>
+      <c r="S35">
+        <v>0.0001322071186209856</v>
+      </c>
+      <c r="T35">
+        <v>0.0001322071186209856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H36">
+        <v>454.666397</v>
+      </c>
+      <c r="I36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>48.08749033333334</v>
+      </c>
+      <c r="N36">
+        <v>144.262471</v>
+      </c>
+      <c r="O36">
+        <v>0.8668063411091308</v>
+      </c>
+      <c r="P36">
+        <v>0.8668063411091308</v>
+      </c>
+      <c r="Q36">
+        <v>7287.921990209666</v>
+      </c>
+      <c r="R36">
+        <v>65591.29791188698</v>
+      </c>
+      <c r="S36">
+        <v>0.1504071228179541</v>
+      </c>
+      <c r="T36">
+        <v>0.1504071228179541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H37">
+        <v>454.666397</v>
+      </c>
+      <c r="I37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>1.591426666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.77428</v>
+      </c>
+      <c r="O37">
+        <v>0.02868643625430831</v>
+      </c>
+      <c r="P37">
+        <v>0.02868643625430831</v>
+      </c>
+      <c r="Q37">
+        <v>241.1894095410178</v>
+      </c>
+      <c r="R37">
+        <v>2170.70468586916</v>
+      </c>
+      <c r="S37">
+        <v>0.004977633568520409</v>
+      </c>
+      <c r="T37">
+        <v>0.004977633568520409</v>
       </c>
     </row>
   </sheetData>
